--- a/P01/sorting_results.xlsx
+++ b/P01/sorting_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\jjperry\Uni\DSA\P01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4801AA63-1A25-478F-A52A-AFA23BD506A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B76BCE1-5AA9-4717-ABE4-3A09BE29BB3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="2445" windowWidth="28800" windowHeight="15885" xr2:uid="{A868D4C0-9A46-4DC6-B225-BAB5BAA5FE5B}"/>
+    <workbookView xWindow="5436" yWindow="2676" windowWidth="17280" windowHeight="8880" xr2:uid="{A868D4C0-9A46-4DC6-B225-BAB5BAA5FE5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,25 +424,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCEFECCA-B53F-4262-8F30-48574BB5A8BF}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" customWidth="1"/>
-    <col min="10" max="10" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -471,21 +471,39 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
       <c r="E2">
         <v>2.5</v>
       </c>
+      <c r="F2">
+        <v>380</v>
+      </c>
+      <c r="G2">
+        <v>260</v>
+      </c>
       <c r="H2">
         <v>13</v>
       </c>
+      <c r="I2">
+        <v>650</v>
+      </c>
+      <c r="J2">
+        <v>700</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -517,7 +535,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
